--- a/ФБ. РКД. Преселектор 0040S. Ведомость   v1.0.3.xlsx
+++ b/ФБ. РКД. Преселектор 0040S. Ведомость   v1.0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="15036" windowHeight="12240"/>
+    <workbookView xWindow="1776" yWindow="0" windowWidth="15036" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Schematic1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -299,25 +311,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -609,7 +623,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,222 +704,233 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="10">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="10">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="10">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18">
         <v>1</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
